--- a/Code/Results/Cases/Case_3_246/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_246/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.57869498834561</v>
+        <v>15.63306431683042</v>
       </c>
       <c r="C2">
-        <v>14.19712135674201</v>
+        <v>12.9537038825443</v>
       </c>
       <c r="D2">
-        <v>4.455026805398511</v>
+        <v>5.040707557175929</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>19.08939904636099</v>
+        <v>25.19144556749403</v>
       </c>
       <c r="G2">
-        <v>2.077339538806084</v>
+        <v>3.635641918846281</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.699609584163374</v>
+        <v>10.87394139526864</v>
       </c>
       <c r="M2">
-        <v>12.54054602995696</v>
+        <v>15.32540893188019</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.11163685513996</v>
+        <v>22.5211570418127</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.12901701736624</v>
+        <v>15.07689629279629</v>
       </c>
       <c r="C3">
-        <v>13.74217173602321</v>
+        <v>12.78669143504414</v>
       </c>
       <c r="D3">
-        <v>4.349722633733124</v>
+        <v>5.007460675077543</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>18.63977006727139</v>
+        <v>25.2323940294181</v>
       </c>
       <c r="G3">
-        <v>2.083308064602368</v>
+        <v>3.637883965955812</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.655692009948408</v>
+        <v>10.89464566984221</v>
       </c>
       <c r="M3">
-        <v>11.9410015587619</v>
+        <v>15.21711244244007</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.01474807793967</v>
+        <v>22.61064865909158</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.18667921752295</v>
+        <v>14.72620340815055</v>
       </c>
       <c r="C4">
-        <v>13.45611280670439</v>
+        <v>12.68302065285146</v>
       </c>
       <c r="D4">
-        <v>4.283798289883537</v>
+        <v>4.986851414202601</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>18.38351387940675</v>
+        <v>25.26630533442787</v>
       </c>
       <c r="G4">
-        <v>2.087081845493252</v>
+        <v>3.639333559024322</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.632519316200293</v>
+        <v>10.90906580492402</v>
       </c>
       <c r="M4">
-        <v>11.561717701144</v>
+        <v>15.15239554442448</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.97505922715511</v>
+        <v>22.67228336134531</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.78945070693576</v>
+        <v>14.58118867221297</v>
       </c>
       <c r="C5">
-        <v>13.33797397197916</v>
+        <v>12.64052520915574</v>
       </c>
       <c r="D5">
-        <v>4.25663799208815</v>
+        <v>4.97840755489392</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>18.28408749341634</v>
+        <v>25.28232082147017</v>
       </c>
       <c r="G5">
-        <v>2.088647897514923</v>
+        <v>3.639942687456006</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.624012504008321</v>
+        <v>10.91537146270342</v>
       </c>
       <c r="M5">
-        <v>11.40453213815491</v>
+        <v>15.12649087724574</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.96366985177585</v>
+        <v>22.69907401072143</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.72269044608618</v>
+        <v>14.55698850939624</v>
       </c>
       <c r="C6">
-        <v>13.31826623842665</v>
+        <v>12.63345485164279</v>
       </c>
       <c r="D6">
-        <v>4.252110897436358</v>
+        <v>4.977002824827443</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>18.26787985324503</v>
+        <v>25.28511255757493</v>
       </c>
       <c r="G6">
-        <v>2.088909664796733</v>
+        <v>3.640044946279982</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.622655966755817</v>
+        <v>10.91644444054828</v>
       </c>
       <c r="M6">
-        <v>11.37827902141853</v>
+        <v>15.12221829211823</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.9620616825822</v>
+        <v>22.70362346359741</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.18137568530405</v>
+        <v>14.72425591767182</v>
       </c>
       <c r="C7">
-        <v>13.45452572174094</v>
+        <v>12.68244850638285</v>
       </c>
       <c r="D7">
-        <v>4.283433161814796</v>
+        <v>4.986737716319728</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>18.38215272964855</v>
+        <v>25.26651244433822</v>
       </c>
       <c r="G7">
-        <v>2.087102850614558</v>
+        <v>3.639341699334055</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.632400823494401</v>
+        <v>10.90914910697976</v>
       </c>
       <c r="M7">
-        <v>11.55960820410766</v>
+        <v>15.15204426293688</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.97488652130075</v>
+        <v>22.6726379013651</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.08963440903769</v>
+        <v>15.4433272797581</v>
       </c>
       <c r="C8">
-        <v>14.04171823400588</v>
+        <v>12.89637160266017</v>
       </c>
       <c r="D8">
-        <v>4.41899422957117</v>
+        <v>5.029286866052962</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>18.93027034525193</v>
+        <v>25.20373984341608</v>
       </c>
       <c r="G8">
-        <v>2.079375326417506</v>
+        <v>3.636399868144024</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.683669412327638</v>
+        <v>10.88072578662167</v>
       </c>
       <c r="M8">
-        <v>12.33623959753479</v>
+        <v>15.28771217954731</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.07400631951051</v>
+        <v>22.5506216169348</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.42127067328264</v>
+        <v>16.77221186585139</v>
       </c>
       <c r="C9">
-        <v>15.1351982688258</v>
+        <v>13.3054902312302</v>
       </c>
       <c r="D9">
-        <v>4.673852977704819</v>
+        <v>5.111010636535543</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>20.16071030370906</v>
+        <v>25.15054409260263</v>
       </c>
       <c r="G9">
-        <v>2.065049911140453</v>
+        <v>3.631207199207187</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.815033249855226</v>
+        <v>10.8385387382005</v>
       </c>
       <c r="M9">
-        <v>13.76414971228118</v>
+        <v>15.56690771218583</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.43352401327683</v>
+        <v>22.36472078497366</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.62450974780269</v>
+        <v>17.68944741056101</v>
       </c>
       <c r="C10">
-        <v>15.89784154140058</v>
+        <v>13.59783564161257</v>
       </c>
       <c r="D10">
-        <v>4.853307747343215</v>
+        <v>5.169791000782314</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>21.1565043051637</v>
+        <v>25.15442716372141</v>
       </c>
       <c r="G10">
-        <v>2.05497449871492</v>
+        <v>3.627739652538767</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.931279760921812</v>
+        <v>10.81580582192047</v>
       </c>
       <c r="M10">
-        <v>14.91136229499558</v>
+        <v>15.77873628591747</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.80823491982663</v>
+        <v>22.26109564512338</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.57502499069883</v>
+        <v>18.09223011176577</v>
       </c>
       <c r="C11">
-        <v>16.23505591092779</v>
+        <v>13.72865712666126</v>
       </c>
       <c r="D11">
-        <v>4.93306153210571</v>
+        <v>5.196212008651114</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>21.62868284101701</v>
+        <v>25.16556737563097</v>
       </c>
       <c r="G11">
-        <v>2.050475293271034</v>
+        <v>3.62623682645095</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.988634156845497</v>
+        <v>10.80725726747219</v>
       </c>
       <c r="M11">
-        <v>15.43131134104283</v>
+        <v>15.8762697287182</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.00450972184147</v>
+        <v>22.22119345538498</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.92762900009376</v>
+        <v>18.24255621081326</v>
       </c>
       <c r="C12">
-        <v>16.3612945362778</v>
+        <v>13.77785308022901</v>
       </c>
       <c r="D12">
-        <v>4.962978116720846</v>
+        <v>5.206167309069215</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>21.81018110280985</v>
+        <v>25.17113482974095</v>
       </c>
       <c r="G12">
-        <v>2.04878248246645</v>
+        <v>3.625678408310145</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.01101030094333</v>
+        <v>10.80427778364715</v>
       </c>
       <c r="M12">
-        <v>15.62438962028243</v>
+        <v>15.91334685009968</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.08267275782848</v>
+        <v>22.2071305934926</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.85201392660769</v>
+        <v>18.21028031342747</v>
       </c>
       <c r="C13">
-        <v>16.33417243239347</v>
+        <v>13.76727360980698</v>
       </c>
       <c r="D13">
-        <v>4.956547896348524</v>
+        <v>5.204025532858142</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>21.7709732958193</v>
+        <v>25.16987578847622</v>
       </c>
       <c r="G13">
-        <v>2.049146592401738</v>
+        <v>3.625798199988056</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.00616174311581</v>
+        <v>10.8049080116101</v>
       </c>
       <c r="M13">
-        <v>15.58297554531202</v>
+        <v>15.90535565587219</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.06566639373202</v>
+        <v>22.21011260707359</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.60418032479918</v>
+        <v>18.10464222291039</v>
       </c>
       <c r="C14">
-        <v>16.24547114562979</v>
+        <v>13.73271156424598</v>
       </c>
       <c r="D14">
-        <v>4.935528560942491</v>
+        <v>5.197032057073222</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>21.64356114817676</v>
+        <v>25.16599837985006</v>
       </c>
       <c r="G14">
-        <v>2.050335812402373</v>
+        <v>3.626190671535048</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.990461802931234</v>
+        <v>10.80700698043539</v>
       </c>
       <c r="M14">
-        <v>15.4472721487817</v>
+        <v>15.87931735784725</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.01086265017876</v>
+        <v>22.22001547131904</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.45142301725149</v>
+        <v>18.03964623001637</v>
       </c>
       <c r="C15">
-        <v>16.19094769484224</v>
+        <v>13.71149568862746</v>
       </c>
       <c r="D15">
-        <v>4.922616188540904</v>
+        <v>5.192741753783955</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>21.56586666629611</v>
+        <v>25.16379902188337</v>
       </c>
       <c r="G15">
-        <v>2.051065632845572</v>
+        <v>3.626432459552045</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.980931147319466</v>
+        <v>10.80832621063556</v>
       </c>
       <c r="M15">
-        <v>15.3636547053622</v>
+        <v>15.86338606500652</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.977797097369</v>
+        <v>22.2262178284791</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.56135896869248</v>
+        <v>17.66282297118626</v>
       </c>
       <c r="C16">
-        <v>15.87560289353913</v>
+        <v>13.58923980134796</v>
       </c>
       <c r="D16">
-        <v>4.848056559992727</v>
+        <v>5.168057577337231</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>21.12602671380376</v>
+        <v>25.15388786849823</v>
       </c>
       <c r="G16">
-        <v>2.055270128516119</v>
+        <v>3.627839361771122</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.927622733296847</v>
+        <v>10.81640055533802</v>
       </c>
       <c r="M16">
-        <v>14.87684554386612</v>
+        <v>15.77238367450522</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.79593845009383</v>
+        <v>22.26384954655042</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.00215324277427</v>
+        <v>17.42785866601101</v>
       </c>
       <c r="C17">
-        <v>15.67961430724302</v>
+        <v>13.51366169606742</v>
       </c>
       <c r="D17">
-        <v>4.801824295821815</v>
+        <v>5.152830231492522</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>20.8610650686187</v>
+        <v>25.15020974873437</v>
       </c>
       <c r="G17">
-        <v>2.057870205184367</v>
+        <v>3.628721512892903</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.896075511335482</v>
+        <v>10.82181300055995</v>
       </c>
       <c r="M17">
-        <v>14.57135065418245</v>
+        <v>15.71683887752148</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.69108014940826</v>
+        <v>22.28879380490763</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.67563540274343</v>
+        <v>17.29135723824328</v>
       </c>
       <c r="C18">
-        <v>15.56597520521067</v>
+        <v>13.46998893106057</v>
       </c>
       <c r="D18">
-        <v>4.775056370776399</v>
+        <v>5.144042123439877</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>20.71047565672778</v>
+        <v>25.14897654209953</v>
       </c>
       <c r="G18">
-        <v>2.05937369557816</v>
+        <v>3.629235925795952</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.878350614715608</v>
+        <v>10.8250948505994</v>
       </c>
       <c r="M18">
-        <v>14.39310283783995</v>
+        <v>15.68500276940089</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.63319186182042</v>
+        <v>22.30382193576086</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.56424120354502</v>
+        <v>17.24491111727779</v>
       </c>
       <c r="C19">
-        <v>15.52734439470326</v>
+        <v>13.45516832947461</v>
       </c>
       <c r="D19">
-        <v>4.7659633806825</v>
+        <v>5.141061634425071</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>20.65980154941042</v>
+        <v>25.14871048813083</v>
       </c>
       <c r="G19">
-        <v>2.059884158684452</v>
+        <v>3.629411305033768</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.872421013555416</v>
+        <v>10.82623501539859</v>
       </c>
       <c r="M19">
-        <v>14.33231423292045</v>
+        <v>15.67424357406197</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.61400405650313</v>
+        <v>22.30902693563187</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.06218569621006</v>
+        <v>17.45301227804519</v>
       </c>
       <c r="C20">
-        <v>15.70057244969625</v>
+        <v>13.52172827760103</v>
       </c>
       <c r="D20">
-        <v>4.806764158122353</v>
+        <v>5.154454315430788</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>20.88908390386834</v>
+        <v>25.15050995871113</v>
       </c>
       <c r="G20">
-        <v>2.057592603250483</v>
+        <v>3.628626879952922</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.899390172499492</v>
+        <v>10.82121937179763</v>
       </c>
       <c r="M20">
-        <v>14.60413312718198</v>
+        <v>15.72274032785377</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.70199072534802</v>
+        <v>22.28606793194139</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.67717327584226</v>
+        <v>18.13573123526623</v>
       </c>
       <c r="C21">
-        <v>16.27156483256595</v>
+        <v>13.74287283762659</v>
       </c>
       <c r="D21">
-        <v>4.941710270169492</v>
+        <v>5.199087592350458</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>21.68091252630224</v>
+        <v>25.16710066054476</v>
       </c>
       <c r="G21">
-        <v>2.049986222423284</v>
+        <v>3.626075103995644</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.995055306400919</v>
+        <v>10.80638347068674</v>
       </c>
       <c r="M21">
-        <v>15.487234622899</v>
+        <v>15.88696174838433</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.0268547405064</v>
+        <v>22.21707828856602</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.68995687671568</v>
+        <v>18.56906588394554</v>
       </c>
       <c r="C22">
-        <v>16.63622804939037</v>
+        <v>13.88538876677756</v>
       </c>
       <c r="D22">
-        <v>5.028242352890146</v>
+        <v>5.227966160920984</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>22.214101463184</v>
+        <v>25.18580533443998</v>
       </c>
       <c r="G22">
-        <v>2.045078179238416</v>
+        <v>3.62446953566403</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.06141562085311</v>
+        <v>10.79818913800905</v>
       </c>
       <c r="M22">
-        <v>16.04218289526165</v>
+        <v>15.99511361328225</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.26159238571838</v>
+        <v>22.17809637569978</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.15328636162179</v>
+        <v>18.33899899953125</v>
       </c>
       <c r="C23">
-        <v>16.44239633827025</v>
+        <v>13.8095198067915</v>
       </c>
       <c r="D23">
-        <v>4.982214805432005</v>
+        <v>5.212581129183429</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>21.92811222899623</v>
+        <v>25.17510306045536</v>
       </c>
       <c r="G23">
-        <v>2.047692321505311</v>
+        <v>3.62532078761622</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.025642111024653</v>
+        <v>10.80242525173957</v>
       </c>
       <c r="M23">
-        <v>15.74801003794456</v>
+        <v>15.93732389417686</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.1342188948054</v>
+        <v>22.19834093504776</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.03506067755782</v>
+        <v>17.44164473558093</v>
       </c>
       <c r="C24">
-        <v>15.6911002672616</v>
+        <v>13.5180820648849</v>
       </c>
       <c r="D24">
-        <v>4.804531432058491</v>
+        <v>5.153720171748654</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>20.87641116191967</v>
+        <v>25.15037148835511</v>
       </c>
       <c r="G24">
-        <v>2.057718079987865</v>
+        <v>3.628669640909574</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.89789033189275</v>
+        <v>10.8214872213088</v>
       </c>
       <c r="M24">
-        <v>14.58932031938933</v>
+        <v>15.72007197704468</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.69705060016559</v>
+        <v>22.28729815852488</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.56333964877447</v>
+        <v>16.42247052423375</v>
       </c>
       <c r="C25">
-        <v>14.84619556665408</v>
+        <v>13.19612427754934</v>
       </c>
       <c r="D25">
-        <v>4.606202692501514</v>
+        <v>5.08910819616446</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>19.81146662976013</v>
+        <v>25.1574092971809</v>
       </c>
       <c r="G25">
-        <v>2.068842153142203</v>
+        <v>3.632550655362391</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.776094971228258</v>
+        <v>10.84850043342004</v>
       </c>
       <c r="M25">
-        <v>13.38883607217708</v>
+        <v>15.49010369591952</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.31750499812996</v>
+        <v>22.40925354670448</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_246/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_246/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.63306431683042</v>
+        <v>21.57869498834559</v>
       </c>
       <c r="C2">
-        <v>12.9537038825443</v>
+        <v>14.19712135674199</v>
       </c>
       <c r="D2">
-        <v>5.040707557175929</v>
+        <v>4.455026805398724</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>25.19144556749403</v>
+        <v>19.08939904636085</v>
       </c>
       <c r="G2">
-        <v>3.635641918846281</v>
+        <v>2.077339538806084</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.87394139526864</v>
+        <v>6.699609584163346</v>
       </c>
       <c r="M2">
-        <v>15.32540893188019</v>
+        <v>12.54054602995696</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>22.5211570418127</v>
+        <v>15.11163685513989</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.07689629279629</v>
+        <v>20.12901701736627</v>
       </c>
       <c r="C3">
-        <v>12.78669143504414</v>
+        <v>13.74217173602306</v>
       </c>
       <c r="D3">
-        <v>5.007460675077543</v>
+        <v>4.349722633733247</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>25.2323940294181</v>
+        <v>18.63977006727127</v>
       </c>
       <c r="G3">
-        <v>3.637883965955812</v>
+        <v>2.083308064602233</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.89464566984221</v>
+        <v>6.655692009948572</v>
       </c>
       <c r="M3">
-        <v>15.21711244244007</v>
+        <v>11.94100155876192</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>22.61064865909158</v>
+        <v>15.01474807793954</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.72620340815055</v>
+        <v>19.1866792175229</v>
       </c>
       <c r="C4">
-        <v>12.68302065285146</v>
+        <v>13.45611280670414</v>
       </c>
       <c r="D4">
-        <v>4.986851414202601</v>
+        <v>4.283798289883474</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>25.26630533442787</v>
+        <v>18.38351387940693</v>
       </c>
       <c r="G4">
-        <v>3.639333559024322</v>
+        <v>2.087081845493117</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.90906580492402</v>
+        <v>6.632519316200374</v>
       </c>
       <c r="M4">
-        <v>15.15239554442448</v>
+        <v>11.56171770114404</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>22.67228336134531</v>
+        <v>14.97505922715526</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.58118867221297</v>
+        <v>18.78945070693574</v>
       </c>
       <c r="C5">
-        <v>12.64052520915574</v>
+        <v>13.33797397197898</v>
       </c>
       <c r="D5">
-        <v>4.97840755489392</v>
+        <v>4.25663799208833</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>25.28232082147017</v>
+        <v>18.28408749341635</v>
       </c>
       <c r="G5">
-        <v>3.639942687456006</v>
+        <v>2.088647897515058</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.91537146270342</v>
+        <v>6.624012504008409</v>
       </c>
       <c r="M5">
-        <v>15.12649087724574</v>
+        <v>11.40453213815495</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>22.69907401072143</v>
+        <v>14.9636698517759</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.55698850939624</v>
+        <v>18.72269044608611</v>
       </c>
       <c r="C6">
-        <v>12.63345485164279</v>
+        <v>13.31826623842668</v>
       </c>
       <c r="D6">
-        <v>4.977002824827443</v>
+        <v>4.252110897436308</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>25.28511255757493</v>
+        <v>18.26787985324519</v>
       </c>
       <c r="G6">
-        <v>3.640044946279982</v>
+        <v>2.088909664796733</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.91644444054828</v>
+        <v>6.622655966755819</v>
       </c>
       <c r="M6">
-        <v>15.12221829211823</v>
+        <v>11.37827902141856</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>22.70362346359741</v>
+        <v>14.96206168258232</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.72425591767182</v>
+        <v>19.18137568530405</v>
       </c>
       <c r="C7">
-        <v>12.68244850638285</v>
+        <v>13.45452572174105</v>
       </c>
       <c r="D7">
-        <v>4.986737716319728</v>
+        <v>4.283433161814852</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>25.26651244433822</v>
+        <v>18.3821527296485</v>
       </c>
       <c r="G7">
-        <v>3.639341699334055</v>
+        <v>2.08710285061496</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.90914910697976</v>
+        <v>6.632400823494407</v>
       </c>
       <c r="M7">
-        <v>15.15204426293688</v>
+        <v>11.55960820410767</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>22.6726379013651</v>
+        <v>14.97488652130072</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.4433272797581</v>
+        <v>21.08963440903764</v>
       </c>
       <c r="C8">
-        <v>12.89637160266017</v>
+        <v>14.04171823400607</v>
       </c>
       <c r="D8">
-        <v>5.029286866052962</v>
+        <v>4.418994229571269</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>25.20373984341608</v>
+        <v>18.93027034525196</v>
       </c>
       <c r="G8">
-        <v>3.636399868144024</v>
+        <v>2.079375326417642</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.88072578662167</v>
+        <v>6.683669412327633</v>
       </c>
       <c r="M8">
-        <v>15.28771217954731</v>
+        <v>12.33623959753481</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>22.5506216169348</v>
+        <v>15.07400631951057</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.77221186585139</v>
+        <v>24.42127067328267</v>
       </c>
       <c r="C9">
-        <v>13.3054902312302</v>
+        <v>15.13519826882583</v>
       </c>
       <c r="D9">
-        <v>5.111010636535543</v>
+        <v>4.673852977704769</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>25.15054409260263</v>
+        <v>20.16071030370899</v>
       </c>
       <c r="G9">
-        <v>3.631207199207187</v>
+        <v>2.065049911140588</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.8385387382005</v>
+        <v>6.815033249855277</v>
       </c>
       <c r="M9">
-        <v>15.56690771218583</v>
+        <v>13.76414971228118</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>22.36472078497366</v>
+        <v>15.43352401327678</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.68944741056101</v>
+        <v>26.62450974780273</v>
       </c>
       <c r="C10">
-        <v>13.59783564161257</v>
+        <v>15.89784154140056</v>
       </c>
       <c r="D10">
-        <v>5.169791000782314</v>
+        <v>4.853307747343349</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>25.15442716372141</v>
+        <v>21.15650430516366</v>
       </c>
       <c r="G10">
-        <v>3.627739652538767</v>
+        <v>2.054974498714919</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.81580582192047</v>
+        <v>6.931279760921806</v>
       </c>
       <c r="M10">
-        <v>15.77873628591747</v>
+        <v>14.91136229499562</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>22.26109564512338</v>
+        <v>15.80823491982657</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.09223011176577</v>
+        <v>27.57502499069878</v>
       </c>
       <c r="C11">
-        <v>13.72865712666126</v>
+        <v>16.23505591092765</v>
       </c>
       <c r="D11">
-        <v>5.196212008651114</v>
+        <v>4.933061532105564</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>25.16556737563097</v>
+        <v>21.62868284101708</v>
       </c>
       <c r="G11">
-        <v>3.62623682645095</v>
+        <v>2.050475293271036</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.80725726747219</v>
+        <v>6.988634156845507</v>
       </c>
       <c r="M11">
-        <v>15.8762697287182</v>
+        <v>15.43131134104282</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>22.22119345538498</v>
+        <v>16.00450972184154</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.24255621081326</v>
+        <v>27.92762900009371</v>
       </c>
       <c r="C12">
-        <v>13.77785308022901</v>
+        <v>16.36129453627776</v>
       </c>
       <c r="D12">
-        <v>5.206167309069215</v>
+        <v>4.96297811672084</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>25.17113482974095</v>
+        <v>21.81018110280987</v>
       </c>
       <c r="G12">
-        <v>3.625678408310145</v>
+        <v>2.048782482466448</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.80427778364715</v>
+        <v>7.01101030094333</v>
       </c>
       <c r="M12">
-        <v>15.91334685009968</v>
+        <v>15.6243896202824</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>22.2071305934926</v>
+        <v>16.08267275782849</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.21028031342747</v>
+        <v>27.85201392660771</v>
       </c>
       <c r="C13">
-        <v>13.76727360980698</v>
+        <v>16.33417243239334</v>
       </c>
       <c r="D13">
-        <v>5.204025532858142</v>
+        <v>4.956547896348511</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>25.16987578847622</v>
+        <v>21.77097329581937</v>
       </c>
       <c r="G13">
-        <v>3.625798199988056</v>
+        <v>2.04914659240147</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.8049080116101</v>
+        <v>7.006161743115805</v>
       </c>
       <c r="M13">
-        <v>15.90535565587219</v>
+        <v>15.58297554531205</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>22.21011260707359</v>
+        <v>16.06566639373204</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.10464222291039</v>
+        <v>27.60418032479915</v>
       </c>
       <c r="C14">
-        <v>13.73271156424598</v>
+        <v>16.24547114562971</v>
       </c>
       <c r="D14">
-        <v>5.197032057073222</v>
+        <v>4.935528560942497</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>25.16599837985006</v>
+        <v>21.6435611481768</v>
       </c>
       <c r="G14">
-        <v>3.626190671535048</v>
+        <v>2.050335812402508</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.80700698043539</v>
+        <v>6.990461802931272</v>
       </c>
       <c r="M14">
-        <v>15.87931735784725</v>
+        <v>15.44727214878167</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>22.22001547131904</v>
+        <v>16.0108626501788</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.03964623001637</v>
+        <v>27.45142301725143</v>
       </c>
       <c r="C15">
-        <v>13.71149568862746</v>
+        <v>16.1909476948422</v>
       </c>
       <c r="D15">
-        <v>5.192741753783955</v>
+        <v>4.922616188541137</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>25.16379902188337</v>
+        <v>21.56586666629619</v>
       </c>
       <c r="G15">
-        <v>3.626432459552045</v>
+        <v>2.051065632845305</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.80832621063556</v>
+        <v>6.98093114731954</v>
       </c>
       <c r="M15">
-        <v>15.86338606500652</v>
+        <v>15.36365470536213</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>22.2262178284791</v>
+        <v>15.97779709736914</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.66282297118626</v>
+        <v>26.56135896869244</v>
       </c>
       <c r="C16">
-        <v>13.58923980134796</v>
+        <v>15.87560289353904</v>
       </c>
       <c r="D16">
-        <v>5.168057577337231</v>
+        <v>4.848056559992841</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>25.15388786849823</v>
+        <v>21.1260267138038</v>
       </c>
       <c r="G16">
-        <v>3.627839361771122</v>
+        <v>2.055270128516119</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.81640055533802</v>
+        <v>6.927622733296847</v>
       </c>
       <c r="M16">
-        <v>15.77238367450522</v>
+        <v>14.87684554386609</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>22.26384954655042</v>
+        <v>15.79593845009392</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.42785866601101</v>
+        <v>26.00215324277424</v>
       </c>
       <c r="C17">
-        <v>13.51366169606742</v>
+        <v>15.67961430724309</v>
       </c>
       <c r="D17">
-        <v>5.152830231492522</v>
+        <v>4.801824295821863</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>25.15020974873437</v>
+        <v>20.86106506861872</v>
       </c>
       <c r="G17">
-        <v>3.628721512892903</v>
+        <v>2.057870205184233</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.82181300055995</v>
+        <v>6.896075511335435</v>
       </c>
       <c r="M17">
-        <v>15.71683887752148</v>
+        <v>14.57135065418245</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>22.28879380490763</v>
+        <v>15.6910801494083</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.29135723824328</v>
+        <v>25.67563540274346</v>
       </c>
       <c r="C18">
-        <v>13.46998893106057</v>
+        <v>15.56597520521036</v>
       </c>
       <c r="D18">
-        <v>5.144042123439877</v>
+        <v>4.77505637077641</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>25.14897654209953</v>
+        <v>20.71047565672771</v>
       </c>
       <c r="G18">
-        <v>3.629235925795952</v>
+        <v>2.059373695578294</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.8250948505994</v>
+        <v>6.878350614715576</v>
       </c>
       <c r="M18">
-        <v>15.68500276940089</v>
+        <v>14.39310283783995</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>22.30382193576086</v>
+        <v>15.63319186182037</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.24491111727779</v>
+        <v>25.56424120354497</v>
       </c>
       <c r="C19">
-        <v>13.45516832947461</v>
+        <v>15.52734439470328</v>
       </c>
       <c r="D19">
-        <v>5.141061634425071</v>
+        <v>4.765963380682609</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>25.14871048813083</v>
+        <v>20.65980154941048</v>
       </c>
       <c r="G19">
-        <v>3.629411305033768</v>
+        <v>2.05988415868432</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.82623501539859</v>
+        <v>6.87242101355544</v>
       </c>
       <c r="M19">
-        <v>15.67424357406197</v>
+        <v>14.33231423292042</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>22.30902693563187</v>
+        <v>15.61400405650325</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.45301227804519</v>
+        <v>26.06218569621007</v>
       </c>
       <c r="C20">
-        <v>13.52172827760103</v>
+        <v>15.70057244969655</v>
       </c>
       <c r="D20">
-        <v>5.154454315430788</v>
+        <v>4.806764158122413</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>25.15050995871113</v>
+        <v>20.88908390386823</v>
       </c>
       <c r="G20">
-        <v>3.628626879952922</v>
+        <v>2.057592603250617</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.82121937179763</v>
+        <v>6.899390172499506</v>
       </c>
       <c r="M20">
-        <v>15.72274032785377</v>
+        <v>14.60413312718199</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>22.28606793194139</v>
+        <v>15.70199072534793</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.13573123526623</v>
+        <v>27.6771732758423</v>
       </c>
       <c r="C21">
-        <v>13.74287283762659</v>
+        <v>16.27156483256596</v>
       </c>
       <c r="D21">
-        <v>5.199087592350458</v>
+        <v>4.941710270169647</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>25.16710066054476</v>
+        <v>21.68091252630217</v>
       </c>
       <c r="G21">
-        <v>3.626075103995644</v>
+        <v>2.049986222423017</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.80638347068674</v>
+        <v>6.99505530640086</v>
       </c>
       <c r="M21">
-        <v>15.88696174838433</v>
+        <v>15.48723462289904</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.21707828856602</v>
+        <v>16.02685474050634</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.56906588394554</v>
+        <v>28.68995687671575</v>
       </c>
       <c r="C22">
-        <v>13.88538876677756</v>
+        <v>16.63622804939045</v>
       </c>
       <c r="D22">
-        <v>5.227966160920984</v>
+        <v>5.0282423528901</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>25.18580533443998</v>
+        <v>22.21410146318395</v>
       </c>
       <c r="G22">
-        <v>3.62446953566403</v>
+        <v>2.045078179238682</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.79818913800905</v>
+        <v>7.061415620853085</v>
       </c>
       <c r="M22">
-        <v>15.99511361328225</v>
+        <v>16.0421828952617</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>22.17809637569978</v>
+        <v>16.26159238571828</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.33899899953125</v>
+        <v>28.15328636162177</v>
       </c>
       <c r="C23">
-        <v>13.8095198067915</v>
+        <v>16.44239633827047</v>
       </c>
       <c r="D23">
-        <v>5.212581129183429</v>
+        <v>4.982214805431974</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>25.17510306045536</v>
+        <v>21.92811222899621</v>
       </c>
       <c r="G23">
-        <v>3.62532078761622</v>
+        <v>2.047692321505178</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.80242525173957</v>
+        <v>7.02564211102479</v>
       </c>
       <c r="M23">
-        <v>15.93732389417686</v>
+        <v>15.74801003794454</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.19834093504776</v>
+        <v>16.13421889480533</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.44164473558093</v>
+        <v>26.03506067755781</v>
       </c>
       <c r="C24">
-        <v>13.5180820648849</v>
+        <v>15.69110026726158</v>
       </c>
       <c r="D24">
-        <v>5.153720171748654</v>
+        <v>4.804531432058576</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>25.15037148835511</v>
+        <v>20.87641116191963</v>
       </c>
       <c r="G24">
-        <v>3.628669640909574</v>
+        <v>2.057718079987865</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.8214872213088</v>
+        <v>6.897890331892754</v>
       </c>
       <c r="M24">
-        <v>15.72007197704468</v>
+        <v>14.58932031938933</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>22.28729815852488</v>
+        <v>15.69705060016557</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.42247052423375</v>
+        <v>23.56333964877438</v>
       </c>
       <c r="C25">
-        <v>13.19612427754934</v>
+        <v>14.84619556665396</v>
       </c>
       <c r="D25">
-        <v>5.08910819616446</v>
+        <v>4.606202692501546</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>25.1574092971809</v>
+        <v>19.81146662976026</v>
       </c>
       <c r="G25">
-        <v>3.632550655362391</v>
+        <v>2.068842153141936</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.84850043342004</v>
+        <v>6.776094971228214</v>
       </c>
       <c r="M25">
-        <v>15.49010369591952</v>
+        <v>13.38883607217709</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>22.40925354670448</v>
+        <v>15.31750499813015</v>
       </c>
     </row>
   </sheetData>
